--- a/gdp_revisions_analysis/output/tables/unbiassdness_e_m_tesis.xlsx
+++ b/gdp_revisions_analysis/output/tables/unbiassdness_e_m_tesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_analysis/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="6_{C1B47D67-70AE-414D-9939-CF307064C637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9659DF2-981B-4582-84CE-CD8A2E5F8D30}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="6_{C1B47D67-70AE-414D-9939-CF307064C637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB983ABF-D3B3-4CF1-9F72-F7FB563C5E98}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A818B8-AC1C-48B4-9EC6-7BF703468C77}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>Media</t>
   </si>
   <si>
-    <t>Horizonte (h)</t>
-  </si>
-  <si>
     <t>PBI</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -586,39 +586,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496513D8-45F4-412F-B325-A911B1FC58A0}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection sqref="A1:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -728,7 +728,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -830,7 +830,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -932,7 +932,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
